--- a/outputs-r202/test-g__Kandleria.xlsx
+++ b/outputs-r202/test-g__Kandleria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Row</t>
   </si>
@@ -49,7 +49,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -59,14 +59,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -79,24 +83,24 @@
   <dimension ref="A1:C3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="5" customWidth="true"/>
     <col min="2" max="2" width="21.28515625" customWidth="true"/>
     <col min="3" max="3" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">

--- a/outputs-r202/test-g__Kandleria.xlsx
+++ b/outputs-r202/test-g__Kandleria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="5">
   <si>
     <t>Row</t>
   </si>
@@ -49,7 +49,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -61,16 +61,68 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -89,22 +141,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>11.972647568750752</v>
       </c>
       <c r="C2">
         <v>1</v>

--- a/outputs-r202/test-g__Kandleria.xlsx
+++ b/outputs-r202/test-g__Kandleria.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Row</t>
   </si>
   <si>
     <t>RUG287.fasta</t>
-  </si>
-  <si>
-    <t>RUG655.fasta</t>
   </si>
   <si>
     <t>1-s__Kandleria vitulina</t>
@@ -49,7 +46,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -59,70 +56,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,7 +73,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="true"/>
@@ -141,18 +82,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -162,17 +103,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>